--- a/策划案/日本語を勉強/N2冲刺/単語/N2単語绿宝书.xlsx
+++ b/策划案/日本語を勉強/N2冲刺/単語/N2単語绿宝书.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\doc\DesignerDoc\策划案\日本語を勉強\N2冲刺\単語\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A6E240-AADA-4FD1-B6F5-1EF63B012F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEE47B9-1E39-489D-8CA5-3682883E5E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'绿宝书1~5'!$D$1:$E$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'绿宝书6~10'!$D$1:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'绿宝书6~10'!$D$1:$E$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="2152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="2340">
   <si>
     <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6801,12 +6801,783 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>でたらめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種：种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出鱈目：荒唐，胡来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問い合わせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>といあわせ：询问打听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ととのう：端正；齐备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眺める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ながめる：眺望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き返す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきかえす：返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ブラス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄铜，铜管乐器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいじる：命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目立つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めだつ：显眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用いる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もちいる：用，使用；采纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆでる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茹でる：煮，烫，焯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あきる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飽きる：厌倦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アルコール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>alcohol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酒精</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いよいよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越发，更；到底，终于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いわう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うしなう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫛：梳子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くわえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吝啬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ささえる：支撑，支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そなえる：防备；设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ともかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アナログ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カプセル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きざむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くるう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さっさと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅速地，赶快的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずうずうしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>図々しい：厚颜无耻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜいたくひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贅沢品：奢侈品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立ち止まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たちどまる：站住，停步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てま：努力和时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睨む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にらむ：盯；注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挟む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はさむ：夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吠える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まぶしい：晃眼；光辉耀眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みのる：结实；有成果，有成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貼る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やむをえない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やむを得ない：不得已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いたずら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しぐさ：行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>却って：反倒，反而</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐっすり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酣睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くみたてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組み立てる：组合，装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差し引く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さしひく：减去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しつこい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓，腻人；执拗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痺れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しびれる：麻木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しめる：占有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すくなくとも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少，最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずらりと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一大排，成排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剃头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たがやす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炊く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぶれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潰れる：压坏，压碎；倒塌；破产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒鳴る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とっくに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早就，老早就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とにかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何，总之，姑且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怠ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なまける：懒惰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はげしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はずれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外れる：脱落；落空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振り向く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふりむく：回头；回顾，理睬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わずか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅か：一点点；稍微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わりあい：比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわただしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慌ただしい：慌张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うごかす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動かす：摇动，挪动；开动，转动；发动，动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うらむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恨む：怨恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追い掛ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追赶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オートメーション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おさえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思いがけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意想不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>からっぽ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空，空虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カタログ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>営む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いとなむ：经营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しばしば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屡次，再三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸発</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうはつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シリーズ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しるし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はぶく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほお</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まさに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正に：真的，的确，实在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豊か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆたか：丰富，富余，丰满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わりびき：折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6861,6 +7632,14 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6933,7 +7712,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2">
@@ -6948,6 +7727,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Grid" xfId="3" xr:uid="{2E0946FE-8244-410C-B829-5AAED5B7DC8F}"/>
@@ -14727,7 +15507,7 @@
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
@@ -15944,18 +16724,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7FAC70-F681-4843-A3B6-CA0DB26238CD}">
-  <dimension ref="A1:F93"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="50.625" customWidth="1"/>
     <col min="6" max="6" width="50.625" customWidth="1"/>
   </cols>
@@ -15977,12 +16758,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2138</v>
       </c>
       <c r="B2" t="s">
         <v>2139</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
@@ -15992,6 +16779,12 @@
       <c r="B3" t="s">
         <v>2141</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -16000,6 +16793,12 @@
       <c r="B4" s="1" t="s">
         <v>2143</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -16008,6 +16807,12 @@
       <c r="B5" t="s">
         <v>2145</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -16016,13 +16821,25 @@
       <c r="B6" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>2148</v>
       </c>
       <c r="B7" t="s">
         <v>2149</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
@@ -16032,264 +16849,1352 @@
       <c r="B8" s="1" t="s">
         <v>2151</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A93" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:E92" xr:uid="{C54C433C-0B3F-438A-AA8E-9C182AB807DB}"/>
+  <autoFilter ref="D1:E103" xr:uid="{C54C433C-0B3F-438A-AA8E-9C182AB807DB}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
